--- a/BalanceSheet/RMD_bal.xlsx
+++ b/BalanceSheet/RMD_bal.xlsx
@@ -507,19 +507,19 @@
         <v>484061000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>18184000.0</v>
+        <v>475000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-52396000.0</v>
+        <v>478000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-47317000.0</v>
+        <v>417000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5730000.0</v>
+        <v>359000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-14090000.0</v>
+        <v>378000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>357033000.0</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>200163000.0</v>
+        <v>49936000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>49628000.0</v>
@@ -1532,10 +1532,8 @@
           <t>Long-term assets (Other)</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>150227000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>130000000.0</v>
@@ -1915,10 +1913,8 @@
           <t>Notes Payable</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>11990000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>11988000.0</v>
@@ -4913,10 +4909,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>145517000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>145504000.0</v>
@@ -5169,10 +5163,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>500401000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>709000000.0</v>
@@ -5298,10 +5290,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B39" s="0" t="n">
+        <v>731036000.0</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>965000000.0</v>
